--- a/accuracy.xlsx
+++ b/accuracy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -96,13 +96,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137368912"/>
-        <c:axId val="-2088912400"/>
+        <c:axId val="2128674352"/>
+        <c:axId val="-2138826912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137368912"/>
+        <c:axId val="2128674352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,12 +520,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088912400"/>
+        <c:crossAx val="-2138826912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088912400"/>
+        <c:axId val="-2138826912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137368912"/>
+        <c:crossAx val="2128674352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,17 +1529,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="D3">
         <v>0.43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
